--- a/assets/tabulados/Resumen_global.xlsx
+++ b/assets/tabulados/Resumen_global.xlsx
@@ -35,13 +35,13 @@
     <t xml:space="preserve">pct_outliers</t>
   </si>
   <si>
-    <t xml:space="preserve">8.538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,11</t>
+    <t xml:space="preserve">8.535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,07</t>
   </si>
   <si>
     <t xml:space="preserve">1.890</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">882</t>
   </si>
   <si>
-    <t xml:space="preserve">13,29</t>
+    <t xml:space="preserve">10,33</t>
   </si>
 </sst>
 </file>
